--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102234.6991398019</v>
+        <v>18543996.57161216</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102234.6991398019</v>
+        <v>18543996.57161216</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>296186.3046188966</v>
+        <v>35830521.97313058</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>296186.3046188966</v>
+        <v>35830521.97313058</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1602758293.830278</v>
+        <v>16937911.68606901</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19570.62122560198</v>
+        <v>482703.147344371</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38190.93153154742</v>
+        <v>827491.1097332081</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>56936.66701061468</v>
+        <v>1172279.072122044</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>75918.7924858974</v>
+        <v>1456575.454605548</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>95002.28350802195</v>
+        <v>1761320.529563227</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>114073.7456482086</v>
+        <v>2065336.004507257</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>133154.7722733769</v>
+        <v>2369351.479451191</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>152230.8021898897</v>
+        <v>2673366.954395157</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>171323.2899142357</v>
+        <v>2973972.331820941</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>190159.9264639521</v>
+        <v>3334865.526772426</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>208883.4577022741</v>
+        <v>3678986.801716394</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>227606.6722518651</v>
+        <v>4023108.076660362</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>246330.2034901872</v>
+        <v>4367229.351604331</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>265316.5873425297</v>
+        <v>4651792.409030117</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>284880.4931946432</v>
+        <v>4915513.866487743</v>
       </c>
     </row>
   </sheetData>
